--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630740.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630740.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70A05323-BF6C-4C90-9298-BB0E4AF55617}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{247DA0BF-2AFE-4B97-8824-4DF07EFAACF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T071717.222" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T070307.627" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630740.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1205.630740.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{247DA0BF-2AFE-4B97-8824-4DF07EFAACF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45491A90-40EF-4788-8846-C9FE4B8BB8C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T070307.627" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T070806.712" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
